--- a/medicine/Psychotrope/Brasserie_du_Brabant/Brasserie_du_Brabant.xlsx
+++ b/medicine/Psychotrope/Brasserie_du_Brabant/Brasserie_du_Brabant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie du Brabant est une microbrasserie belge située à Baisy-Thy dans la commune de Genappe en province du Brabant wallon.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La microbrasserie a été fondée en 2003 par Frédéric Magerat, brasseur amateur devenu professionnel, dans une fermette à Baisy-Thy[1]. La brasserie possède une cuve de brassage permettant des brassins de 650 litres, une cuve de filtration, quatre cuves de fermentation et une chaîne d'embouteillage et d’étiquetage[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La microbrasserie a été fondée en 2003 par Frédéric Magerat, brasseur amateur devenu professionnel, dans une fermette à Baisy-Thy. La brasserie possède une cuve de brassage permettant des brassins de 650 litres, une cuve de filtration, quatre cuves de fermentation et une chaîne d'embouteillage et d’étiquetage.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Six variétés de bières artisanales de haute fermentation, non filtrées, non pasteurisées et refermentées en bouteilles de 75 cl capsulées sont produites :
 La Brabançonne Ambrée, bière rousse composée de cinq types de malt titrant 7,5 % en volume d'alcool
